--- a/mbs-perturbation/bloated/elm/smote/bloated_elm_tanh_smote_results.xlsx
+++ b/mbs-perturbation/bloated/elm/smote/bloated_elm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5305164319248826</v>
+        <v>0.5489130434782609</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9955947136563876</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6921898928024501</v>
+        <v>0.7087719298245615</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4464296690912817</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4689655172413793</v>
+        <v>0.4924242424242424</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6384976525821596</v>
+        <v>0.6598984771573604</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5084388185654009</v>
+        <v>0.5579710144927535</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5022935779816514</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.1450777202072539</v>
       </c>
       <c r="D4" t="n">
-        <v>0.668702290076336</v>
+        <v>0.2466960352422908</v>
       </c>
       <c r="E4" t="n">
-        <v>0.422302439425727</v>
+        <v>0.6084736098371222</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5276497695852534</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6907993966817496</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4882075471698114</v>
+        <v>0.4352289696366352</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5873015873015873</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9910714285714286</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7375415282392027</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.823362409479921</v>
+        <v>0.5546448087431695</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5233453768069508</v>
+        <v>0.5081846071390757</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9973332284455634</v>
+        <v>0.4779951358781854</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6855461520763797</v>
+        <v>0.394983400804393</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5377481767464284</v>
+        <v>0.568763680541936</v>
       </c>
     </row>
   </sheetData>
